--- a/LIRV/2020 S1 Final Review Plan.xlsx
+++ b/LIRV/2020 S1 Final Review Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>2007 S2</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>LIRV 2019 S1</t>
-  </si>
-  <si>
-    <t>2011 S1 Q1</t>
   </si>
   <si>
     <t>2015 S1</t>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Read DI article [mailbox]</t>
+  </si>
+  <si>
+    <t>2011 S1</t>
+  </si>
+  <si>
+    <t>Past Exam Index / Notes / Tutorial / Assignment</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -332,6 +335,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -356,62 +409,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -728,275 +740,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="18">
         <v>43925</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="18">
         <v>43926</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="18">
         <v>43927</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>43928</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>43929</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>43930</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>43928</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>43929</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>43930</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>43931</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>43932</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>43931</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>43932</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>43933</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>43934</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="34"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>43933</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>43934</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>43935</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>43936</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>43937</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>43938</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>43939</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>43940</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>43935</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>43936</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>43937</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>43938</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>43939</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>43940</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="18">
         <v>43941</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="23" t="s">
+      <c r="B18" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="20">
         <v>43942</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1021,11 +1030,11 @@
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1097,30 +1106,30 @@
       <c r="A7" s="9">
         <v>43744</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>43745</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>43746</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1129,20 +1138,20 @@
       <c r="A10" s="2">
         <v>43747</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43748</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
